--- a/web/temp/payments.xlsx
+++ b/web/temp/payments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -44,16 +44,13 @@
     <t>Оплата картой</t>
   </si>
   <si>
-    <t>Тру</t>
-  </si>
-  <si>
-    <t>21.10.2019 в 18:26</t>
-  </si>
-  <si>
-    <t>Ла</t>
-  </si>
-  <si>
-    <t>Бу</t>
+    <t>Новый тип оплаты2</t>
+  </si>
+  <si>
+    <t>26.01.2020 в 15:34</t>
+  </si>
+  <si>
+    <t>26.01.2020 в 15:35</t>
   </si>
 </sst>
 </file>
@@ -395,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,7 +401,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.27301" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19.899902" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20.947266" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="22.125549" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="22.125549" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -467,7 +464,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -476,35 +473,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
